--- a/testing/Tang_per_piece_metrics.xlsx
+++ b/testing/Tang_per_piece_metrics.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2592</v>
+        <v>4807</v>
       </c>
       <c r="C2" t="n">
-        <v>6190</v>
+        <v>3975</v>
       </c>
       <c r="D2" t="n">
-        <v>1.693441867828369</v>
+        <v>1.54785943031311</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3065</v>
+        <v>4723</v>
       </c>
       <c r="C3" t="n">
-        <v>5171</v>
+        <v>3513</v>
       </c>
       <c r="D3" t="n">
-        <v>1.693441867828369</v>
+        <v>1.54785943031311</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5263</v>
+        <v>5270</v>
       </c>
       <c r="C4" t="n">
-        <v>5286</v>
+        <v>5279</v>
       </c>
       <c r="D4" t="n">
-        <v>1.693441867828369</v>
+        <v>1.54785943031311</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2891</v>
+        <v>4575</v>
       </c>
       <c r="C5" t="n">
-        <v>6855</v>
+        <v>5171</v>
       </c>
       <c r="D5" t="n">
-        <v>1.693441867828369</v>
+        <v>1.54785943031311</v>
       </c>
     </row>
     <row r="6">
@@ -526,13 +526,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3523</v>
+        <v>5822</v>
       </c>
       <c r="C6" t="n">
-        <v>7213</v>
+        <v>4914</v>
       </c>
       <c r="D6" t="n">
-        <v>1.693441867828369</v>
+        <v>1.54785943031311</v>
       </c>
     </row>
     <row r="7">
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4644</v>
+        <v>9789</v>
       </c>
       <c r="C7" t="n">
-        <v>12368</v>
+        <v>7223</v>
       </c>
       <c r="D7" t="n">
-        <v>1.693441867828369</v>
+        <v>1.54785943031311</v>
       </c>
     </row>
   </sheetData>
